--- a/biology/Zoologie/Aldicarbe/Aldicarbe.xlsx
+++ b/biology/Zoologie/Aldicarbe/Aldicarbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aldicarbe est une substance active appartenant à la famille chimique des carbamates et présentant un effet insecticide et nématicide.
@@ -512,7 +524,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est interdite par la directive 2003/199/CE, à la suite de l'examen relatif à l'inscription à l’annexe I de la directive 91/414/CEE ;
@@ -548,7 +562,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux et le risque de pollution des eaux :
 hydrolyse à pH 7 : instable ;
@@ -583,13 +599,15 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 0,145 mg·l-1 ;
 CL50 sur daphnies : 0,41 mg·l-1 ;
 CL50 sur algues : 42,4 mg·l-1.
-Cette molécule et son métabolite le plus toxique (Sulfoxyde d'aldicarbe) peuvent être absorbés et lentement métabolisés et dégradés par certains champignons [5].
+Cette molécule et son métabolite le plus toxique (Sulfoxyde d'aldicarbe) peuvent être absorbés et lentement métabolisés et dégradés par certains champignons .
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la toxicité pour l’Homme, la dose journalière acceptable (DJA) est de l’ordre de : 0,001 mg·kg-1·j-1. Ce produit fait partie de la liste EPA des substances extrêmement dangereuses.
 </t>
@@ -649,9 +669,11 @@
           <t>Pollutions accidentelles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dimanche 26 juin 2006, un incendie se déclare (à 19 heures) dans l'usine SBM, classée Seveso 2, produisant des pesticides, dans le quartier de LaDevèze à Béziers (Hérault]. 2 000 tonnes d'aldicarbe auraient brûlé pendant 11 jours sur ce site[6].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dimanche 26 juin 2006, un incendie se déclare (à 19 heures) dans l'usine SBM, classée Seveso 2, produisant des pesticides, dans le quartier de LaDevèze à Béziers (Hérault]. 2 000 tonnes d'aldicarbe auraient brûlé pendant 11 jours sur ce site.</t>
         </is>
       </c>
     </row>
